--- a/biology/Zoologie/Conus_galeao/Conus_galeao.xlsx
+++ b/biology/Zoologie/Conus_galeao/Conus_galeao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus galeao est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,17 +526,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus galeao a été décrite pour la première fois en 1990 par le malacologiste espagnol Emilio Rolán Mosquera (d) (1935-)[1] dans la publication intitulée « Iberus »[2],[3].
-Synonymes
-Africonus claudiae (Tenorio &amp; Afonso, 2004) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus galeao a été décrite pour la première fois en 1990 par le malacologiste espagnol Emilio Rolán Mosquera (d) (1935-) dans la publication intitulée « Iberus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_galeao</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_galeao</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Africonus claudiae (Tenorio &amp; Afonso, 2004) · non accepté
 Africonus damottai galeao (Rolán, 1990) · non accepté
 Africonus galeao (Rolán, 1990) · appellation alternative
 Conus (Lautoconus) claudiae Tenorio &amp; Afonso, 2004 · non accepté
 Conus claudiae Tenorio &amp; Afonso, 2004 · non accepté
-Conus damottai galeao Rolán, 1990 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus galeao dans les principales bases sont les suivants :
+Conus damottai galeao Rolán, 1990 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_galeao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_galeao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus galeao dans les principales bases sont les suivants :
 CoL : XXG3 - GBIF : 9735941 - WoRMS : 1053693
 </t>
         </is>
